--- a/modules_ERPNext.xlsx
+++ b/modules_ERPNext.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Info" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Check List'!$C$1:$C$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Check List'!$A$1:$E$29</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
   <si>
     <t xml:space="preserve">Modules </t>
   </si>
@@ -79,9 +79,6 @@
     <t>Healthcare</t>
   </si>
   <si>
-    <t>Restaurant</t>
-  </si>
-  <si>
     <t>Agriculture</t>
   </si>
   <si>
@@ -91,12 +88,6 @@
     <t>Non Profit</t>
   </si>
   <si>
-    <t>Hotels</t>
-  </si>
-  <si>
-    <t>Hub Node</t>
-  </si>
-  <si>
     <t>Quality Management</t>
   </si>
   <si>
@@ -109,12 +100,6 @@
     <t>Payroll</t>
   </si>
   <si>
-    <t>Telephony</t>
-  </si>
-  <si>
-    <t>E-commerce</t>
-  </si>
-  <si>
     <t>Managing School and Institute using ERPNext - ERPNext for schools and colleges - YouTube</t>
   </si>
   <si>
@@ -142,9 +127,6 @@
     <t>Upgrade Process</t>
   </si>
   <si>
-    <t>Imports/Exports</t>
-  </si>
-  <si>
     <t>Reporting</t>
   </si>
   <si>
@@ -157,9 +139,6 @@
     <t>Workflow</t>
   </si>
   <si>
-    <t>RBAC</t>
-  </si>
-  <si>
     <t>Backup and Restore</t>
   </si>
   <si>
@@ -169,14 +148,71 @@
     <t>Done</t>
   </si>
   <si>
-    <t>-</t>
+    <t>GST</t>
+  </si>
+  <si>
+    <t>OWNER</t>
+  </si>
+  <si>
+    <t>SUDHIR</t>
+  </si>
+  <si>
+    <t>Domains</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>Not required</t>
+  </si>
+  <si>
+    <t>Based on need</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Data Imports/Exports</t>
+  </si>
+  <si>
+    <t>Access controls - RBAC</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>WDV Calculation</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>List of Templates</t>
+  </si>
+  <si>
+    <t>surendhra &amp; Nagendra</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Surendhra</t>
+  </si>
+  <si>
+    <t>Pentaho Reportig</t>
+  </si>
+  <si>
+    <t>Surendhra &amp; Nagendra</t>
+  </si>
+  <si>
+    <t>Open points</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,13 +236,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -222,10 +271,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -507,340 +558,480 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" t="s">
-        <v>46</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C41"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -858,12 +1049,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/modules_ERPNext.xlsx
+++ b/modules_ERPNext.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
   <si>
     <t xml:space="preserve">Modules </t>
   </si>
@@ -109,9 +109,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t xml:space="preserve">Need </t>
-  </si>
-  <si>
     <t>Need</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
     <t>Backup and Restore</t>
   </si>
   <si>
-    <t>Done Works Perfect</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
@@ -199,13 +193,16 @@
     <t>Surendhra</t>
   </si>
   <si>
-    <t>Pentaho Reportig</t>
-  </si>
-  <si>
     <t>Surendhra &amp; Nagendra</t>
   </si>
   <si>
     <t>Open points</t>
+  </si>
+  <si>
+    <t>Pentaho Reporting</t>
+  </si>
+  <si>
+    <t>Done with Basics</t>
   </si>
 </sst>
 </file>
@@ -561,7 +558,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +572,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -584,10 +581,10 @@
         <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -598,13 +595,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
         <v>41</v>
-      </c>
-      <c r="E2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -615,10 +612,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -629,10 +626,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -643,10 +640,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -657,10 +654,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -671,10 +668,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
         <v>51</v>
-      </c>
-      <c r="D7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -685,7 +682,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -696,10 +693,10 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -710,7 +707,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -721,10 +718,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -735,13 +732,13 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -752,7 +749,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -763,10 +760,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -777,7 +774,7 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -788,7 +785,7 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -799,7 +796,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -810,10 +807,10 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -824,10 +821,10 @@
         <v>24</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -835,13 +832,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -849,13 +846,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -863,13 +860,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -877,13 +874,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -891,16 +891,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -908,10 +908,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -919,13 +919,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
         <v>35</v>
       </c>
-      <c r="C26" t="s">
-        <v>36</v>
-      </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -933,10 +933,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -944,16 +947,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -961,10 +964,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
         <v>38</v>
-      </c>
-      <c r="C29" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -975,15 +978,15 @@
         <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -991,15 +994,15 @@
         <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="B35" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -1007,7 +1010,7 @@
         <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -1015,7 +1018,7 @@
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -1023,7 +1026,7 @@
         <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
